--- a/medicine/Premiers secours et secourisme/À_tombeau_ouvert/À_tombeau_ouvert.xlsx
+++ b/medicine/Premiers secours et secourisme/À_tombeau_ouvert/À_tombeau_ouvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">À tombeau ouvert ou Ressusciter les morts au Québec (Bringing Out the Dead) est un film dramatique américain réalisé par Martin Scorsese et sorti en 1999. Il s'agit d'une adaptation cinématographique du roman du même nom de Joe Connelly.
 Le film raconte 48 heures de la vie d'un ambulancier incarné par Nicolas Cage.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Pierce est ambulancier à Manhattan. Dépressif, il est en plein burn-out. Malgré ses efforts pour garder les gens en vie, il voit les fantômes de ceux qu'il n'a pas réussi à sauver. Il a tout essayé pour se faire renvoyer, mais ne parvient pas à quitter le travail de lui-même. Une nuit, Frank et son partenaire Larry répondent à un appel d'urgence : un certain M. Burke est en arrêt cardiaque. Frank va alors se lier d'amitié avec la fille désemparée de la victime, Mary. Cette dernière est une ancienne junkie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synopsis détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Pierce est ambulancier de nuit à Manhattan. À cause de la rudesse de son métier, il est en plein burn-out et croit voir les fantômes de ceux qu'il n'a pas pu sauver. Frank n'arrive cependant pas à démissionner ou se faire renvoyer et arpente les rues de New-York avec ses collègues (tous excentriques) dans l'espoir de sauver quelqu'un pour calmer ses angoisses.
 Une nuit, Frank et son partenaire Larry sont appelés par la famille Burke dont le père a fait un arrêt cardiaque. Frank fait la connaissance de sa fille, Mary, une ancienne droguée et amie avec Noel, un autre drogué et délinquant fréquemment admis à l'hôpital. Frank et Larry se rendent ensuite sur le lieu d'une fusillade où Frank trouve des flacons de "Mort Rouge", de l'héroïne. Malgré leur rapidité, la victime décède dans leur ambulance en se repentant d'avoir vendu de la drogue. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre français : À tombeau ouvert
-Titre québécois : Ressusciter les morts[1]
+Titre québécois : Ressusciter les morts
 Titre original : Bringing Out the Dead
 Réalisation : Martin Scorsese
 Scénario : Paul Schrader, d'après le roman de Joe Connelly (en)
@@ -594,7 +612,7 @@
 Production : Barbara De Fina, Scott Rudin, Joseph P. Reidy, Eric Steel, Bruce S. Pustin et Adam Schroeder
 Sociétés de production : De Fina-Cappa, Paramount Pictures et Touchstone Pictures
 Sociétés de distribution : Paramount Pictures (États-Unis), Touchstone Pictures (international)
-Budget : 32 millions de dollars[2]
+Budget : 32 millions de dollars
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : Couleurs - 1,85:1 - DTS / Dolby Digital / SDDS - 35 mm
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,7 +650,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nicolas Cage (V. F. : Dominique Collignon-Maurin ; V. Q. : Benoit Rousseau) : Frank Pierce
 Patricia Arquette (V. F. : Véronique Volta ; V. Q. : Natalie Hamel-Roy) : Mary Burke
@@ -654,7 +674,7 @@
 Michael K. Williams : (V. F. : Jean-Paul Pitolin) : un dealer
 Judy Reyes : une infirmière
 Martin Scorsese : la voix du dispatcher (caméo)
-Sources et légendes : Version française (V. F.) sur Voxofilm[3]Version québécoise (V. Q.) sur Doublage Québec[4]</t>
+Sources et légendes : Version française (V. F.) sur VoxofilmVersion québécoise (V. Q.) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -664,7 +684,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%80_tombeau_ouvert</t>
+          <t>À_tombeau_ouvert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,15 +704,125 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Quand le producteur Scott Rudin acquiert les droits du livre de Joe Connelly, il pense à Martin Scorsese pour le poste de réalisateur. Ancien ambulancier, l'auteur officie comme consultant sur le film[5].
-Attribution des rôles
-Au moment du film, Nicolas Cage et Patricia Arquette étaient mariés.
-Joe Connelly, l'auteur du roman original, fait un petit caméo dans le rôle d'un patient catatonique[5].
-Tournage
-Le tournage s'est déroulé du 15 septembre 1998 au 7 janvier 1999 à New York (8e et 11e avenues, 41e et 54e rues, Greenwich Village, Hell's Kitchen, Midtown et Norfolk Street)[6].
-Bande originale
-T.B. Sheets, interprété par Van Morrison
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand le producteur Scott Rudin acquiert les droits du livre de Joe Connelly, il pense à Martin Scorsese pour le poste de réalisateur. Ancien ambulancier, l'auteur officie comme consultant sur le film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment du film, Nicolas Cage et Patricia Arquette étaient mariés.
+Joe Connelly, l'auteur du roman original, fait un petit caméo dans le rôle d'un patient catatonique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage s'est déroulé du 15 septembre 1998 au 7 janvier 1999 à New York (8e et 11e avenues, 41e et 54e rues, Greenwich Village, Hell's Kitchen, Midtown et Norfolk Street).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>T.B. Sheets, interprété par Van Morrison
 September of My Years, interprété par Frank Sinatra
 You Can't Put Your Arms Around A Memory, interprété par Johnny Thunders
 Bell Boy, interprété par The Who
@@ -715,68 +845,110 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%80_tombeau_ouvert</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 71 % d'opinions favorables pour 108 critiques[8]. Sur Metacritic, il obtient une note moyenne de 70⁄100 pour 34 critiques[7].
-En France, le site Allociné propose une note moyenne de 4,3⁄5 à partir de l'interprétation de critiques provenant de 20 titres de presse[9].
-Box-office
-Le film est un échec commercial. Produit pour environ 32 millions de dollars, il ne récolte que 16 millions au box-office nord-américain.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 71 % d'opinions favorables pour 108 critiques. Sur Metacritic, il obtient une note moyenne de 70⁄100 pour 34 critiques.
+En France, le site Allociné propose une note moyenne de 4,3⁄5 à partir de l'interprétation de critiques provenant de 20 titres de presse.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%80_tombeau_ouvert</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est un échec commercial. Produit pour environ 32 millions de dollars, il ne récolte que 16 millions au box-office nord-américain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>À_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%80_tombeau_ouvert</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Source [13]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Source 
 Golden Trailer Awards 1999
 Nomination au Golden Trailer Award du meilleure montage de bande-annonce
 Nomination au Golden Trailer Award de la meilleure voix-off de bande-annonce
